--- a/reverseprimer-v3_13.xlsx
+++ b/reverseprimer-v3_13.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_13" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R1153-TGTACACGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTACACGAAGTCTCGTGGGCTCGG</t>
+    <t>R1153-CAAGTCAACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGTCAACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R1154-TGAAGAGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAAGAGCAAGTCTCGTGGGCTCGG</t>
+    <t>R1154-GAGTACACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTACACTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R1155-AGGATGCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGATGCTTCGTCTCGTGGGCTCGG</t>
+    <t>R1155-ACTCGAGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCGAGTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R1156-ACAGGTCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGGTCTTGGTCTCGTGGGCTCGG</t>
+    <t>R1156-TGCTACTGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCTACTGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R1157-TAGGTGTTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGGTGTTCAGTCTCGTGGGCTCGG</t>
+    <t>R1157-GACAAGTCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACAAGTCGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R1158-GTCCAACCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCCAACCAAGTCTCGTGGGCTCGG</t>
+    <t>R1158-ACACACCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACACCAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R1159-TGAACGTTCT</t>
+    <t>R1159-GTGTTGGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTTGGACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>R1160-CAGTGAGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGTGAGTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>R1161-AACTCTCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTCTCTACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>R1162-TGAACGTTCT</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATTGAACGTTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>R1160-GCTCTTGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTCTTGAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>R1161-TTGCTCCACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGCTCCACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>R1162-GATCATCGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCATCGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R1163-AGCATCACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCATCACTGGTCTCGTGGGCTCGG</t>
+    <t>R1163-TCCTAGCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTAGCAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R1164-AACATGGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACATGGTGTGTCTCGTGGGCTCGG</t>
+    <t>R1164-GTCACTTCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCACTTCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R1165-TCCTGAGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTGAGATCGTCTCGTGGGCTCGG</t>
+    <t>R1165-CTACTGTCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACTGTCGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R1166-ACTGTCTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGTCTGCTGTCTCGTGGGCTCGG</t>
+    <t>R1166-ACCACGTTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCACGTTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R1167-TCTCTACTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCTACTGCGTCTCGTGGGCTCGG</t>
+    <t>R1167-CATCAGCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCAGCTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R1168-GCATCACACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCATCACACAGTCTCGTGGGCTCGG</t>
+    <t>R1168-CTGAACACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGAACACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R1169-TGTGAGTGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGAGTGGAGTCTCGTGGGCTCGG</t>
+    <t>R1169-TAGTTCTCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTTCTCCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R1170-TGAACAACAC</t>
+    <t>R1170-TTGGAACTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGGAACTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>R1171-AGATCCAACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATCCAACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>R1172-ACAAGAGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAAGAGAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>R1173-CAACATCCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACATCCAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>R1174-AGAGGAAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGGAAGGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>R1175-GTAGAAGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGAAGGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>R1176-GTTCAGAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCAGAGGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>R1177-AAGGATGCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGGATGCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>R1178-AACATCCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACATCCATCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>R1179-TGATGCTGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGATGCTGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>R1180-CGTCACTGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTCACTGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>R1181-TTCTAGCTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCTAGCTCGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>R1182-CTTCAGTGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCAGTGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>R1183-GACTAGATGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTAGATGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>R1184-TGACTGCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACTGCATGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>R1185-GTTCTTCAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCTTCAGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>R1186-TGCTAGGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCTAGGATCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>R1187-TTCGAGGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCGAGGACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>R1188-CCAAGATGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCAAGATGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>R1189-CACATGTACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACATGTACGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>R1190-AGATGCATGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATGCATGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>R1191-ACACAGCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACAGCATCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>R1192-CATGAGACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGAGACCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>R1193-TAGGAGCACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGGAGCACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>R1194-GACGACTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACGACTCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>R1195-TGTAGAGTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTAGAGTGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>R1196-GAGTCACCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTCACCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>R1197-CCATGGTTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCATGGTTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>R1198-ATGAGACTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGAGACTTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>R1199-TGGAGAACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGAGAACATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>R1200-GAGTCGTTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTCGTTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>R1201-AAGACCACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGACCACATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>R1202-ATGATCAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGATCAGCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>R1203-TTCTGCTAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCTGCTAGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>R1204-TCGACAGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGACAGACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>R1205-AGTCCTCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCCTCAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>R1206-ACTCACGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCACGTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>R1207-GGTGTCTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTGTCTGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>R1208-CGACACTAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGACACTAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>R1209-TCGAAGTACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGAAGTACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>R1210-ATCCTCGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCTCGATGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>R1211-ACATGAGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATGAGAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>R1212-AGTACAGTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTACAGTGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>R1213-AGTCCAGGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCCAGGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>R1214-GTGGACACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGGACACATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>R1215-ACCTTCACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTTCACTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>R1216-GCAAGTAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCAAGTAGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>R1217-AGGTGGATGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTGGATGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>R1218-ACCTACGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTACGACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>R1219-TCGTACACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTACACAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>R1220-TCATGATGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCATGATGGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>R1221-TCATGCTAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCATGCTAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>R1222-AGGATCATCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGATCATCCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>R1223-GATGTCCTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGTCCTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>R1224-ACCAACCTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCAACCTGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>R1225-GATGTGAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGTGAGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>R1226-CTGATCTGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGATCTGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>R1227-ACACGTGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACGTGAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>R1228-ACCTCTCGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTCTCGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>R1229-AACGTTCGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGTTCGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>R1230-GTACGTGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACGTGAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>R1231-GCAGTGAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCAGTGAGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>R1232-ACAACGACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACGACTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>R1233-ACAGTAGTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGTAGTCGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>R1234-TGACCTTGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACCTTGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>R1235-GTAGTGTCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGTGTCCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>R1236-TGTCAACTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCAACTCCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>R1237-TCTGTACTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGTACTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>R1238-TGTACGTCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTACGTCGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>R1239-CTTCGACAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCGACAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>R1240-TTGCTGAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGCTGAGCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>R1241-TCAAGCACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAAGCACAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>R1242-GAAGGTTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGGTTCTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>R1243-CAAGAGTTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGAGTTGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>R1244-TACTTCACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTTCACGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>R1245-CAAGCATGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGCATGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>R1246-CATCATCAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCATCAGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>R1247-AGTCCTACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCCTACACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>R1248-TGAACAACAC</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATTGAACAACACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>R1171-GTCTGACAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTGACAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>R1172-AGATCCTTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGATCCTTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>R1173-TCTTGCTGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTTGCTGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>R1174-AAGAGAAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGAGAAGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>R1175-CTACGTAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACGTAGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>R1176-ACAACACTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACACTCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>R1177-AAGTGTGTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTGTGTGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>R1178-TACGAGTCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGAGTCTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>R1179-TGATGACATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGATGACATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>R1180-ACAAGAGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAAGAGAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>R1181-GATGCTGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGCTGTGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>R1182-ACTAGGTGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTAGGTGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>R1183-CATGTTGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGTTGTACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>R1184-AAGCTTGCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCTTGCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>R1185-ACTGGACAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGGACAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>R1186-CAAGAGGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGAGGACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>R1187-ATCACTCTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCACTCTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>R1188-GTGAGAACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGAGAACAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>R1189-AGGATCGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGATCGTGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>R1190-TTCGTCTGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCGTCTGGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>R1191-TTGGTAGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGGTAGACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>R1192-TCAGCATGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGCATGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>R1193-AGGTCAGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTCAGAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>R1194-AAGATGCAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGATGCAGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>R1195-ATCAGTCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCAGTCAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>R1196-TGTCAGCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCAGCAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>R1197-TGGAGTGGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGAGTGGATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>R1198-AGTTGTCCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTTGTCCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>R1199-CTCTTCTCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCTTCTCTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>R1200-TTGACAGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGACAGTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>R1201-CTACTGTCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACTGTCGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>R1202-GATCAAGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCAAGAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>R1203-TGTAGAGTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTAGAGTGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>R1204-GACGTAGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACGTAGTAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>R1205-ACCAACGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCAACGATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>R1206-GTTGACCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGACCAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>R1207-CATCACCTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCACCTGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>R1208-TGATCTGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGATCTGTAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>R1209-AAGACTCGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGACTCGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>R1210-GAGTTCTTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTTCTTCCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>R1211-GAAGCAAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGCAAGACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>R1212-GACACAGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACACAGTACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>R1213-GATCAACTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCAACTCGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>R1214-AACAAGAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAAGAGACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>R1215-TCTTCAGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTTCAGACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>R1216-AACAGTCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAGTCTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>R1217-TGTCCAACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCCAACTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>R1218-ATCGACCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGACCTTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>R1219-AGTTCAGCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTTCAGCTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>R1220-CTACTGCACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACTGCACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>R1221-GGTGTTCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTGTTCAACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>R1222-GGTTGAAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTTGAAGGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>R1223-GGACAGATCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGACAGATCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>R1224-TACATGAAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACATGAAGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>R1225-AACTCGAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTCGAGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>R1226-TGCATCCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCATCCTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>R1227-TTGCATCGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGCATCGACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>R1228-AACGAACCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGAACCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>R1229-CACTGACATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACTGACATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>R1230-GACTTGTGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTTGTGCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>R1231-TACGTGAACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGTGAACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>R1232-TCAAGTGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAAGTGTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>R1233-TTCTGTCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCTGTCTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>R1234-CAACATGGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACATGGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>R1235-TCTCTCCACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCTCCACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>R1236-GTCTTGCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTTGCTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>R1237-TGACGTTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACGTTGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>R1238-AACTCCTCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTCCTCTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>R1239-GTAGCTAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGCTAGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>R1240-GAACACTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACACTGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>R1241-CAGCTTGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGCTTGACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>R1242-GTAGAACACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGAACACCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>R1243-TTGTGAGGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGTGAGGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>R1244-AGTTCAAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTTCAAGCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>R1245-CTTCAACACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTCAACACCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H10</t>
-  </si>
-  <si>
-    <t>R1246-CTCTCACTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCTCACTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H11</t>
-  </si>
-  <si>
-    <t>R1247-GAGAGAGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGAGAGTAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H12</t>
-  </si>
-  <si>
-    <t>R1248-TTGTTGGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGTTGGAACGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
